--- a/target/test-classes/com/store/testdata/TestData.xlsx
+++ b/target/test-classes/com/store/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOWMYA\Desktop\Selenium Training\EcommerceWebsite\src\test\java\com\store\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C7FF4A-A36B-4FD8-81A8-DF74DBC53521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3814E5C-194F-4DDA-826A-F3870BF6112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchData" sheetId="1" r:id="rId1"/>
@@ -161,19 +161,19 @@
     <t>London</t>
   </si>
   <si>
-    <t>Warina</t>
-  </si>
-  <si>
     <t>Ross</t>
   </si>
   <si>
-    <t>testaccount22@email.com</t>
-  </si>
-  <si>
-    <t>testaccount22</t>
-  </si>
-  <si>
-    <t>8173678458</t>
+    <t>Warne</t>
+  </si>
+  <si>
+    <t>testaccount23@email.com</t>
+  </si>
+  <si>
+    <t>testaccount23</t>
+  </si>
+  <si>
+    <t>8173678459</t>
   </si>
 </sst>
 </file>
@@ -634,10 +634,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>

--- a/target/test-classes/com/store/testdata/TestData.xlsx
+++ b/target/test-classes/com/store/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOWMYA\Desktop\Selenium Training\EcommerceWebsite\src\test\java\com\store\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3814E5C-194F-4DDA-826A-F3870BF6112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12D834-8639-4043-8C6A-A469E032515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,19 +161,19 @@
     <t>London</t>
   </si>
   <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Warne</t>
-  </si>
-  <si>
-    <t>testaccount23@email.com</t>
-  </si>
-  <si>
-    <t>testaccount23</t>
-  </si>
-  <si>
-    <t>8173678459</t>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>testaccount25@email.com</t>
+  </si>
+  <si>
+    <t>testaccount25</t>
+  </si>
+  <si>
+    <t>8173678441</t>
   </si>
 </sst>
 </file>
@@ -634,10 +634,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
